--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema4b-Dcbld2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema4b-Dcbld2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.659925666666667</v>
+        <v>0.3434516666666667</v>
       </c>
       <c r="H2">
-        <v>4.979777</v>
+        <v>1.030355</v>
       </c>
       <c r="I2">
-        <v>0.2642801384529059</v>
+        <v>0.07181106008319683</v>
       </c>
       <c r="J2">
-        <v>0.2642801384529059</v>
+        <v>0.07181106008319683</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.446932333333333</v>
+        <v>2.819352333333333</v>
       </c>
       <c r="N2">
-        <v>22.340797</v>
+        <v>8.458057</v>
       </c>
       <c r="O2">
-        <v>0.1309571246780483</v>
+        <v>0.05609595354453337</v>
       </c>
       <c r="P2">
-        <v>0.1309571246780483</v>
+        <v>0.05609595354453337</v>
       </c>
       <c r="Q2">
-        <v>12.36135411802989</v>
+        <v>0.9683112578038888</v>
       </c>
       <c r="R2">
-        <v>111.252187062269</v>
+        <v>8.714801320234999</v>
       </c>
       <c r="S2">
-        <v>0.03460936704130907</v>
+        <v>0.004028309890410704</v>
       </c>
       <c r="T2">
-        <v>0.03460936704130908</v>
+        <v>0.004028309890410704</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.659925666666667</v>
+        <v>0.3434516666666667</v>
       </c>
       <c r="H3">
-        <v>4.979777</v>
+        <v>1.030355</v>
       </c>
       <c r="I3">
-        <v>0.2642801384529059</v>
+        <v>0.07181106008319683</v>
       </c>
       <c r="J3">
-        <v>0.2642801384529059</v>
+        <v>0.07181106008319683</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>107.104241</v>
       </c>
       <c r="O3">
-        <v>0.6278228767838827</v>
+        <v>0.7103421657667366</v>
       </c>
       <c r="P3">
-        <v>0.6278228767838828</v>
+        <v>0.7103421657667366</v>
       </c>
       <c r="Q3">
-        <v>59.26169288158412</v>
+        <v>12.26171002617278</v>
       </c>
       <c r="R3">
-        <v>533.3552359342571</v>
+        <v>110.355390235555</v>
       </c>
       <c r="S3">
-        <v>0.1659211168003462</v>
+        <v>0.05101042394550329</v>
       </c>
       <c r="T3">
-        <v>0.1659211168003462</v>
+        <v>0.05101042394550329</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.659925666666667</v>
+        <v>0.3434516666666667</v>
       </c>
       <c r="H4">
-        <v>4.979777</v>
+        <v>1.030355</v>
       </c>
       <c r="I4">
-        <v>0.2642801384529059</v>
+        <v>0.07181106008319683</v>
       </c>
       <c r="J4">
-        <v>0.2642801384529059</v>
+        <v>0.07181106008319683</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.71707733333334</v>
+        <v>11.738694</v>
       </c>
       <c r="N4">
-        <v>41.15123200000001</v>
+        <v>35.216082</v>
       </c>
       <c r="O4">
-        <v>0.2412199985380689</v>
+        <v>0.23356188068873</v>
       </c>
       <c r="P4">
-        <v>0.2412199985380689</v>
+        <v>0.23356188068873</v>
       </c>
       <c r="Q4">
-        <v>22.76932873725156</v>
+        <v>4.03167401879</v>
       </c>
       <c r="R4">
-        <v>204.9239586352641</v>
+        <v>36.28506616911</v>
       </c>
       <c r="S4">
-        <v>0.06374965461125059</v>
+        <v>0.01677232624728284</v>
       </c>
       <c r="T4">
-        <v>0.06374965461125061</v>
+        <v>0.01677232624728284</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>4.425456000000001</v>
       </c>
       <c r="I5">
-        <v>0.2348619475123571</v>
+        <v>0.3084341675553999</v>
       </c>
       <c r="J5">
-        <v>0.2348619475123571</v>
+        <v>0.3084341675553999</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.446932333333333</v>
+        <v>2.819352333333333</v>
       </c>
       <c r="N5">
-        <v>22.340797</v>
+        <v>8.458057</v>
       </c>
       <c r="O5">
-        <v>0.1309571246780483</v>
+        <v>0.05609595354453337</v>
       </c>
       <c r="P5">
-        <v>0.1309571246780483</v>
+        <v>0.05609595354453337</v>
       </c>
       <c r="Q5">
-        <v>10.98535712538133</v>
+        <v>4.158973233221334</v>
       </c>
       <c r="R5">
-        <v>98.868214128432</v>
+        <v>37.43075909899201</v>
       </c>
       <c r="S5">
-        <v>0.03075684534250499</v>
+        <v>0.01730190873473453</v>
       </c>
       <c r="T5">
-        <v>0.030756845342505</v>
+        <v>0.01730190873473453</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>4.425456000000001</v>
       </c>
       <c r="I6">
-        <v>0.2348619475123571</v>
+        <v>0.3084341675553999</v>
       </c>
       <c r="J6">
-        <v>0.2348619475123571</v>
+        <v>0.3084341675553999</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>107.104241</v>
       </c>
       <c r="O6">
-        <v>0.6278228767838827</v>
+        <v>0.7103421657667366</v>
       </c>
       <c r="P6">
-        <v>0.6278228767838828</v>
+        <v>0.7103421657667366</v>
       </c>
       <c r="Q6">
         <v>52.66501177321068</v>
@@ -818,10 +818,10 @@
         <v>473.985105958896</v>
       </c>
       <c r="S6">
-        <v>0.1474517035342733</v>
+        <v>0.2190937945777633</v>
       </c>
       <c r="T6">
-        <v>0.1474517035342733</v>
+        <v>0.2190937945777633</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>4.425456000000001</v>
       </c>
       <c r="I7">
-        <v>0.2348619475123571</v>
+        <v>0.3084341675553999</v>
       </c>
       <c r="J7">
-        <v>0.2348619475123571</v>
+        <v>0.3084341675553999</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.71707733333334</v>
+        <v>11.738694</v>
       </c>
       <c r="N7">
-        <v>41.15123200000001</v>
+        <v>35.216082</v>
       </c>
       <c r="O7">
-        <v>0.2412199985380689</v>
+        <v>0.23356188068873</v>
       </c>
       <c r="P7">
-        <v>0.2412199985380689</v>
+        <v>0.23356188068873</v>
       </c>
       <c r="Q7">
-        <v>20.23477406242134</v>
+        <v>17.316357931488</v>
       </c>
       <c r="R7">
-        <v>182.1129665617921</v>
+        <v>155.847221383392</v>
       </c>
       <c r="S7">
-        <v>0.05665339863557879</v>
+        <v>0.07203846424290207</v>
       </c>
       <c r="T7">
-        <v>0.05665339863557879</v>
+        <v>0.07203846424290207</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.145854666666667</v>
+        <v>2.964109000000001</v>
       </c>
       <c r="H8">
-        <v>9.437564</v>
+        <v>8.892327000000002</v>
       </c>
       <c r="I8">
-        <v>0.5008579140347369</v>
+        <v>0.6197547723614032</v>
       </c>
       <c r="J8">
-        <v>0.500857914034737</v>
+        <v>0.6197547723614033</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.446932333333333</v>
+        <v>2.819352333333333</v>
       </c>
       <c r="N8">
-        <v>22.340797</v>
+        <v>8.458057</v>
       </c>
       <c r="O8">
-        <v>0.1309571246780483</v>
+        <v>0.05609595354453337</v>
       </c>
       <c r="P8">
-        <v>0.1309571246780483</v>
+        <v>0.05609595354453337</v>
       </c>
       <c r="Q8">
-        <v>23.42696683316755</v>
+        <v>8.356867625404334</v>
       </c>
       <c r="R8">
-        <v>210.842701498508</v>
+        <v>75.21180862863902</v>
       </c>
       <c r="S8">
-        <v>0.06559091229423425</v>
+        <v>0.03476573491938813</v>
       </c>
       <c r="T8">
-        <v>0.06559091229423428</v>
+        <v>0.03476573491938813</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.145854666666667</v>
+        <v>2.964109000000001</v>
       </c>
       <c r="H9">
-        <v>9.437564</v>
+        <v>8.892327000000002</v>
       </c>
       <c r="I9">
-        <v>0.5008579140347369</v>
+        <v>0.6197547723614032</v>
       </c>
       <c r="J9">
-        <v>0.500857914034737</v>
+        <v>0.6197547723614033</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>107.104241</v>
       </c>
       <c r="O9">
-        <v>0.6278228767838827</v>
+        <v>0.7103421657667366</v>
       </c>
       <c r="P9">
-        <v>0.6278228767838828</v>
+        <v>0.7103421657667366</v>
       </c>
       <c r="Q9">
-        <v>112.3114587898804</v>
+        <v>105.8228815620897</v>
       </c>
       <c r="R9">
-        <v>1010.803129108924</v>
+        <v>952.4059340588072</v>
       </c>
       <c r="S9">
-        <v>0.3144500564492632</v>
+        <v>0.44023794724347</v>
       </c>
       <c r="T9">
-        <v>0.3144500564492633</v>
+        <v>0.44023794724347</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.145854666666667</v>
+        <v>2.964109000000001</v>
       </c>
       <c r="H10">
-        <v>9.437564</v>
+        <v>8.892327000000002</v>
       </c>
       <c r="I10">
-        <v>0.5008579140347369</v>
+        <v>0.6197547723614032</v>
       </c>
       <c r="J10">
-        <v>0.500857914034737</v>
+        <v>0.6197547723614033</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.71707733333334</v>
+        <v>11.738694</v>
       </c>
       <c r="N10">
-        <v>41.15123200000001</v>
+        <v>35.216082</v>
       </c>
       <c r="O10">
-        <v>0.2412199985380689</v>
+        <v>0.23356188068873</v>
       </c>
       <c r="P10">
-        <v>0.2412199985380689</v>
+        <v>0.23356188068873</v>
       </c>
       <c r="Q10">
-        <v>43.15193174209423</v>
+        <v>34.79476853364601</v>
       </c>
       <c r="R10">
-        <v>388.3673856788481</v>
+        <v>313.152916802814</v>
       </c>
       <c r="S10">
-        <v>0.1208169452912395</v>
+        <v>0.1447510901985451</v>
       </c>
       <c r="T10">
-        <v>0.1208169452912395</v>
+        <v>0.1447510901985451</v>
       </c>
     </row>
   </sheetData>
